--- a/data/all_together.xlsx
+++ b/data/all_together.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-5800" yWindow="-21600" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
     <sheet name="Totals" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Data'!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Data'!$B$1:$B$115</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="89">
   <si>
     <t>1. https://userfiles-fos.s3.amazonaws.com/1817115/images/IMG_5275_4.JPG</t>
   </si>
@@ -280,13 +280,16 @@
     <t>Sienna Cafe|407 Elizabeth St Surry Hills NSW 2010​</t>
   </si>
   <si>
-    <t>Address: 8/24 Kippax St, Surry Hills NSW 2010​​</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
     <t>Coffee_ordered</t>
+  </si>
+  <si>
+    <t>Citta Cafe|44 Holt St Surry Hills NSW 2010</t>
+  </si>
+  <si>
+    <t>Kippax Coffee|8/24 Kippax St Surry Hills NSW 2010​​</t>
   </si>
 </sst>
 </file>
@@ -361,8 +364,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -520,7 +541,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -595,6 +616,15 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -669,6 +699,15 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -998,13 +1037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
     <tabColor rgb="FF87CEFA"/>
   </sheetPr>
-  <dimension ref="A1:U119"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1034,13 +1073,13 @@
         <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
@@ -1094,7 +1133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" hidden="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" hidden="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" hidden="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" hidden="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" hidden="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1353,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="7" spans="1:21" hidden="1"/>
+    <row r="8" spans="1:21" hidden="1">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1358,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1402,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" hidden="1">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1446,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" hidden="1">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1490,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" hidden="1">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1534,7 +1574,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="13" spans="1:21" hidden="1"/>
+    <row r="14" spans="1:21" hidden="1">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1578,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" hidden="1">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1622,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" hidden="1">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1666,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" hidden="1">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1710,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" hidden="1">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1754,7 +1795,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="19" spans="1:20" hidden="1"/>
+    <row r="20" spans="1:20" hidden="1">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1798,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" hidden="1">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1842,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" hidden="1">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1886,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" hidden="1">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1930,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" hidden="1">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1974,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" hidden="1">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2018,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" hidden="1">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2062,7 +2104,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="27" spans="1:20" hidden="1"/>
+    <row r="28" spans="1:20" hidden="1">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2106,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" hidden="1">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -2153,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" hidden="1">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -2200,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" hidden="1">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -2241,7 +2284,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="32" spans="1:20" hidden="1"/>
+    <row r="33" spans="1:20" hidden="1"/>
+    <row r="34" spans="1:20" hidden="1">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -2285,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
@@ -2329,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -2373,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2417,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" hidden="1">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2464,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" hidden="1">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
@@ -2505,7 +2550,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="40" spans="1:20" hidden="1"/>
+    <row r="41" spans="1:20" hidden="1">
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
@@ -2549,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -2596,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" hidden="1">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2640,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" hidden="1">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2684,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" hidden="1">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -2728,7 +2774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="46" spans="1:20" hidden="1"/>
+    <row r="47" spans="1:20" hidden="1"/>
+    <row r="48" spans="1:20" hidden="1">
       <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
@@ -2772,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" hidden="1">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -2816,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" hidden="1">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -2860,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" hidden="1">
       <c r="A51" s="2" t="s">
         <v>57</v>
       </c>
@@ -2904,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" hidden="1">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
@@ -2948,7 +2996,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="53" spans="1:20" hidden="1"/>
+    <row r="54" spans="1:20" hidden="1"/>
+    <row r="55" spans="1:20" hidden="1">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -2992,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" hidden="1">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -3036,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" hidden="1">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
@@ -3083,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" hidden="1">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -3127,7 +3177,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="59" spans="1:20" hidden="1"/>
+    <row r="60" spans="1:20" hidden="1"/>
+    <row r="61" spans="1:20" hidden="1">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -3171,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" hidden="1">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3215,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" hidden="1">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -3259,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" hidden="1">
       <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
@@ -3303,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" hidden="1">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -3347,7 +3399,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="66" spans="1:20" hidden="1"/>
+    <row r="67" spans="1:20" hidden="1"/>
+    <row r="68" spans="1:20" hidden="1">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
@@ -3391,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" hidden="1">
       <c r="A69" s="2" t="s">
         <v>62</v>
       </c>
@@ -3435,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" hidden="1">
       <c r="A70" s="2" t="s">
         <v>62</v>
       </c>
@@ -3479,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" hidden="1">
       <c r="A71" s="2" t="s">
         <v>62</v>
       </c>
@@ -3523,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" hidden="1">
       <c r="A72" s="2" t="s">
         <v>62</v>
       </c>
@@ -3567,7 +3621,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="73" spans="1:20" hidden="1"/>
+    <row r="74" spans="1:20" hidden="1"/>
+    <row r="75" spans="1:20" hidden="1">
       <c r="A75" s="2" t="s">
         <v>64</v>
       </c>
@@ -3611,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" hidden="1">
       <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
@@ -3658,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" hidden="1">
       <c r="A77" s="2" t="s">
         <v>64</v>
       </c>
@@ -3702,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" hidden="1">
       <c r="A78" s="2" t="s">
         <v>64</v>
       </c>
@@ -3746,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" hidden="1">
       <c r="A79" s="2" t="s">
         <v>64</v>
       </c>
@@ -3790,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" hidden="1">
       <c r="A80" s="2" t="s">
         <v>64</v>
       </c>
@@ -3834,7 +3890,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="81" spans="1:20" hidden="1"/>
+    <row r="82" spans="1:20" hidden="1">
       <c r="A82" s="2" t="s">
         <v>66</v>
       </c>
@@ -3878,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" hidden="1">
       <c r="A83" s="2" t="s">
         <v>66</v>
       </c>
@@ -3922,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" hidden="1">
       <c r="A84" s="2" t="s">
         <v>66</v>
       </c>
@@ -3966,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" hidden="1">
       <c r="A85" s="2" t="s">
         <v>66</v>
       </c>
@@ -4010,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" hidden="1">
       <c r="A86" s="2" t="s">
         <v>66</v>
       </c>
@@ -4057,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" hidden="1">
       <c r="A87" s="2" t="s">
         <v>66</v>
       </c>
@@ -4101,7 +4158,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="88" spans="1:20" hidden="1"/>
+    <row r="89" spans="1:20" hidden="1"/>
+    <row r="90" spans="1:20" hidden="1">
       <c r="A90" s="2" t="s">
         <v>68</v>
       </c>
@@ -4145,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" hidden="1">
       <c r="A91" s="2" t="s">
         <v>68</v>
       </c>
@@ -4189,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" hidden="1">
       <c r="A92" s="2" t="s">
         <v>68</v>
       </c>
@@ -4233,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" hidden="1">
       <c r="A93" s="2" t="s">
         <v>68</v>
       </c>
@@ -4277,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" hidden="1">
       <c r="A94" s="2" t="s">
         <v>68</v>
       </c>
@@ -4321,7 +4380,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="95" spans="1:20" hidden="1"/>
+    <row r="96" spans="1:20" hidden="1"/>
+    <row r="97" spans="1:20" hidden="1">
       <c r="A97" s="2" t="s">
         <v>69</v>
       </c>
@@ -4365,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" hidden="1">
       <c r="A98" s="2" t="s">
         <v>69</v>
       </c>
@@ -4409,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" hidden="1">
       <c r="A99" s="2" t="s">
         <v>69</v>
       </c>
@@ -4453,18 +4514,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="100" spans="1:20" hidden="1"/>
+    <row r="101" spans="1:20" hidden="1"/>
     <row r="102" spans="1:20">
       <c r="A102" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" t="s">
+        <v>22</v>
       </c>
       <c r="K102" s="1">
-        <v>43200.259722222203</v>
+        <v>43201.270833333299</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -4484,13 +4565,13 @@
         <v>70</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
@@ -4499,16 +4580,19 @@
         <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I103" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="J103" t="s">
+        <v>71</v>
       </c>
       <c r="K103" s="1">
-        <v>43201.016666666699</v>
+        <v>43206.027777777803</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -4528,13 +4612,16 @@
         <v>70</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="C104" t="s">
+        <v>72</v>
       </c>
       <c r="D104" t="s">
         <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -4543,13 +4630,13 @@
         <v>21</v>
       </c>
       <c r="H104" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I104" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K104" s="1">
-        <v>43201.270833333299</v>
+        <v>43206.028472222199</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -4569,34 +4656,31 @@
         <v>70</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E105" t="s">
         <v>21</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I105" t="s">
-        <v>27</v>
-      </c>
-      <c r="J105" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="K105" s="1">
-        <v>43206.027777777803</v>
+        <v>43206.029861111099</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -4616,13 +4700,13 @@
         <v>70</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E106" t="s">
         <v>21</v>
@@ -4631,7 +4715,7 @@
         <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H106" t="s">
         <v>27</v>
@@ -4640,7 +4724,7 @@
         <v>27</v>
       </c>
       <c r="K106" s="1">
-        <v>43206.028472222199</v>
+        <v>43206.030555555597</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -4660,31 +4744,31 @@
         <v>70</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E107" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H107" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I107" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K107" s="1">
-        <v>43206.029861111099</v>
+        <v>43207.046527777798</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -4704,31 +4788,31 @@
         <v>70</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
       </c>
       <c r="G108" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H108" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I108" t="s">
         <v>27</v>
       </c>
       <c r="K108" s="1">
-        <v>43206.030555555597</v>
+        <v>43207.21875</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -4748,31 +4832,31 @@
         <v>70</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
       </c>
       <c r="G109" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I109" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K109" s="1">
-        <v>43207.046527777798</v>
+        <v>43207.271527777797</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -4792,31 +4876,31 @@
         <v>70</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H110" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I110" t="s">
         <v>27</v>
       </c>
       <c r="K110" s="1">
-        <v>43207.21875</v>
+        <v>43207.279861111099</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -4836,31 +4920,31 @@
         <v>70</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D111" t="s">
         <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G111" t="s">
         <v>22</v>
       </c>
       <c r="H111" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I111" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K111" s="1">
-        <v>43207.271527777797</v>
+        <v>43207.219444444403</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -4880,31 +4964,31 @@
         <v>70</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E112" t="s">
         <v>21</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I112" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K112" s="1">
-        <v>43207.279861111099</v>
+        <v>43207.999305555597</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -4924,31 +5008,31 @@
         <v>70</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s">
         <v>22</v>
       </c>
       <c r="H113" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I113" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K113" s="1">
-        <v>43207.219444444403</v>
+        <v>43208.003472222197</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -4963,16 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
-      <c r="A114" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C114" t="s">
-        <v>19</v>
-      </c>
+    <row r="114" spans="1:20" hidden="1">
       <c r="D114" t="s">
         <v>20</v>
       </c>
@@ -4980,19 +5055,19 @@
         <v>21</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H114" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I114" t="s">
         <v>21</v>
       </c>
       <c r="K114" s="1">
-        <v>43207.999305555597</v>
+        <v>43208.007638888899</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -5007,181 +5082,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
-      <c r="A115" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C115" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" t="s">
-        <v>30</v>
-      </c>
-      <c r="I115" t="s">
-        <v>21</v>
-      </c>
-      <c r="K115" s="1">
-        <v>43208.001388888901</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115" t="s">
-        <v>23</v>
-      </c>
-      <c r="N115" t="s">
-        <v>24</v>
-      </c>
-      <c r="T115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20">
-      <c r="A116" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C116" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" t="s">
-        <v>20</v>
-      </c>
-      <c r="E116" t="s">
-        <v>21</v>
-      </c>
-      <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" t="s">
-        <v>21</v>
-      </c>
-      <c r="I116" t="s">
-        <v>21</v>
-      </c>
-      <c r="K116" s="1">
-        <v>43208.003472222197</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116" t="s">
-        <v>23</v>
-      </c>
-      <c r="N116" t="s">
-        <v>24</v>
-      </c>
-      <c r="T116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20">
-      <c r="A117" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C117" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>21</v>
-      </c>
-      <c r="H117" t="s">
-        <v>30</v>
-      </c>
-      <c r="I117" t="s">
-        <v>21</v>
-      </c>
-      <c r="K117" s="1">
-        <v>43208.004861111098</v>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117" t="s">
-        <v>23</v>
-      </c>
-      <c r="N117" t="s">
-        <v>24</v>
-      </c>
-      <c r="T117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20">
-      <c r="D118" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" t="s">
-        <v>21</v>
-      </c>
-      <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s">
-        <v>21</v>
-      </c>
-      <c r="H118" t="s">
-        <v>21</v>
-      </c>
-      <c r="I118" t="s">
-        <v>21</v>
-      </c>
-      <c r="K118" s="1">
-        <v>43208.007638888899</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118" t="s">
-        <v>23</v>
-      </c>
-      <c r="N118" t="s">
-        <v>24</v>
-      </c>
-      <c r="T118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20">
-      <c r="E119" s="2"/>
+    <row r="115" spans="1:20" hidden="1">
+      <c r="E115" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1">
-    <sortState ref="A2:U6">
-      <sortCondition ref="A1:A6"/>
-    </sortState>
+  <autoFilter ref="B1:B115">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Kippax Coffee| 8/24 Kippax St Surry Hills NSW 2010​​"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/all_together.xlsx
+++ b/data/all_together.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="3720" yWindow="-17900" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="95">
   <si>
     <t>1. https://userfiles-fos.s3.amazonaws.com/1817115/images/IMG_5275_4.JPG</t>
   </si>
@@ -290,6 +290,24 @@
   </si>
   <si>
     <t>Kippax Coffee|8/24 Kippax St Surry Hills NSW 2010​​</t>
+  </si>
+  <si>
+    <t>1. https://userfiles-fos.s3.amazonaws.com/1817115/images/IMG_5298.JPG</t>
+  </si>
+  <si>
+    <t>Friendly staff. Decent coffee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frothy|441 Elizabeth St Surry Hills NSW 2012</t>
+  </si>
+  <si>
+    <t>1. https://userfiles-fos.s3.amazonaws.com/1817115/images/IMG_5301.JPG</t>
+  </si>
+  <si>
+    <t>News corp Coffee|2 Holt St Surry Hills NSW 2010​</t>
+  </si>
+  <si>
+    <t>You can get discount if you bring your own mug.</t>
   </si>
 </sst>
 </file>
@@ -364,8 +382,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -541,7 +563,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="171">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -625,6 +647,8 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -708,6 +732,8 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1037,13 +1063,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF87CEFA"/>
   </sheetPr>
-  <dimension ref="A1:U115"/>
+  <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1133,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1">
+    <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1">
+    <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1">
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1353,8 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1"/>
-    <row r="8" spans="1:21" hidden="1">
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1">
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1442,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1">
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1">
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1">
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1574,8 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1"/>
-    <row r="14" spans="1:21" hidden="1">
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1619,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1">
+    <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1663,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1">
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1707,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1">
+    <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1751,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1">
+    <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1795,8 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1"/>
-    <row r="20" spans="1:20" hidden="1">
+    <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1840,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1">
+    <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1884,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1">
+    <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1928,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1">
+    <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1972,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1">
+    <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -2016,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1">
+    <row r="25" spans="1:20">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2060,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1">
+    <row r="26" spans="1:20">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2104,8 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1"/>
-    <row r="28" spans="1:20" hidden="1">
+    <row r="28" spans="1:20">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2149,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1">
+    <row r="29" spans="1:20">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -2196,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1">
+    <row r="30" spans="1:20">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -2243,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1">
+    <row r="31" spans="1:20">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -2284,9 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1"/>
-    <row r="33" spans="1:20" hidden="1"/>
-    <row r="34" spans="1:20" hidden="1">
+    <row r="34" spans="1:20">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -2330,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1">
+    <row r="35" spans="1:20">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
@@ -2374,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1">
+    <row r="36" spans="1:20">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1">
+    <row r="37" spans="1:20">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2462,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1">
+    <row r="38" spans="1:20">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -2509,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1">
+    <row r="39" spans="1:20">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
@@ -2550,8 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1"/>
-    <row r="41" spans="1:20" hidden="1">
+    <row r="41" spans="1:20">
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
@@ -2595,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1">
+    <row r="42" spans="1:20">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -2642,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1">
+    <row r="43" spans="1:20">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2686,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1">
+    <row r="44" spans="1:20">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2730,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1">
+    <row r="45" spans="1:20">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -2774,9 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1"/>
-    <row r="47" spans="1:20" hidden="1"/>
-    <row r="48" spans="1:20" hidden="1">
+    <row r="48" spans="1:20">
       <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
@@ -2820,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1">
+    <row r="49" spans="1:20">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -2864,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1">
+    <row r="50" spans="1:20">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -2908,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1">
+    <row r="51" spans="1:20">
       <c r="A51" s="2" t="s">
         <v>57</v>
       </c>
@@ -2952,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1">
+    <row r="52" spans="1:20">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
@@ -2996,9 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1"/>
-    <row r="54" spans="1:20" hidden="1"/>
-    <row r="55" spans="1:20" hidden="1">
+    <row r="55" spans="1:20">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1">
+    <row r="56" spans="1:20">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -3086,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1">
+    <row r="57" spans="1:20">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
@@ -3133,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1">
+    <row r="58" spans="1:20">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -3177,9 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1"/>
-    <row r="60" spans="1:20" hidden="1"/>
-    <row r="61" spans="1:20" hidden="1">
+    <row r="61" spans="1:20">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -3223,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1">
+    <row r="62" spans="1:20">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3267,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1">
+    <row r="63" spans="1:20">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -3311,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1">
+    <row r="64" spans="1:20">
       <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
@@ -3355,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1">
+    <row r="65" spans="1:20">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -3399,9 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1"/>
-    <row r="67" spans="1:20" hidden="1"/>
-    <row r="68" spans="1:20" hidden="1">
+    <row r="68" spans="1:20">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
@@ -3445,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1">
+    <row r="69" spans="1:20">
       <c r="A69" s="2" t="s">
         <v>62</v>
       </c>
@@ -3489,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1">
+    <row r="70" spans="1:20">
       <c r="A70" s="2" t="s">
         <v>62</v>
       </c>
@@ -3533,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1">
+    <row r="71" spans="1:20">
       <c r="A71" s="2" t="s">
         <v>62</v>
       </c>
@@ -3577,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1">
+    <row r="72" spans="1:20">
       <c r="A72" s="2" t="s">
         <v>62</v>
       </c>
@@ -3621,9 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1"/>
-    <row r="74" spans="1:20" hidden="1"/>
-    <row r="75" spans="1:20" hidden="1">
+    <row r="75" spans="1:20">
       <c r="A75" s="2" t="s">
         <v>64</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1">
+    <row r="76" spans="1:20">
       <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
@@ -3714,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1">
+    <row r="77" spans="1:20">
       <c r="A77" s="2" t="s">
         <v>64</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1">
+    <row r="78" spans="1:20">
       <c r="A78" s="2" t="s">
         <v>64</v>
       </c>
@@ -3802,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1">
+    <row r="79" spans="1:20">
       <c r="A79" s="2" t="s">
         <v>64</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1">
+    <row r="80" spans="1:20">
       <c r="A80" s="2" t="s">
         <v>64</v>
       </c>
@@ -3890,8 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1"/>
-    <row r="82" spans="1:20" hidden="1">
+    <row r="82" spans="1:20">
       <c r="A82" s="2" t="s">
         <v>66</v>
       </c>
@@ -3935,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1">
+    <row r="83" spans="1:20">
       <c r="A83" s="2" t="s">
         <v>66</v>
       </c>
@@ -3979,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1">
+    <row r="84" spans="1:20">
       <c r="A84" s="2" t="s">
         <v>66</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1">
+    <row r="85" spans="1:20">
       <c r="A85" s="2" t="s">
         <v>66</v>
       </c>
@@ -4067,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1">
+    <row r="86" spans="1:20">
       <c r="A86" s="2" t="s">
         <v>66</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1">
+    <row r="87" spans="1:20">
       <c r="A87" s="2" t="s">
         <v>66</v>
       </c>
@@ -4158,9 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1"/>
-    <row r="89" spans="1:20" hidden="1"/>
-    <row r="90" spans="1:20" hidden="1">
+    <row r="90" spans="1:20">
       <c r="A90" s="2" t="s">
         <v>68</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1">
+    <row r="91" spans="1:20">
       <c r="A91" s="2" t="s">
         <v>68</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1">
+    <row r="92" spans="1:20">
       <c r="A92" s="2" t="s">
         <v>68</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1">
+    <row r="93" spans="1:20">
       <c r="A93" s="2" t="s">
         <v>68</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1">
+    <row r="94" spans="1:20">
       <c r="A94" s="2" t="s">
         <v>68</v>
       </c>
@@ -4380,9 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1"/>
-    <row r="96" spans="1:20" hidden="1"/>
-    <row r="97" spans="1:20" hidden="1">
+    <row r="97" spans="1:20">
       <c r="A97" s="2" t="s">
         <v>69</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1">
+    <row r="98" spans="1:20">
       <c r="A98" s="2" t="s">
         <v>69</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1">
+    <row r="99" spans="1:20">
       <c r="A99" s="2" t="s">
         <v>69</v>
       </c>
@@ -4514,8 +4518,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1"/>
-    <row r="101" spans="1:20" hidden="1"/>
     <row r="102" spans="1:20">
       <c r="A102" s="2" t="s">
         <v>70</v>
@@ -5047,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1">
+    <row r="114" spans="1:20">
       <c r="D114" t="s">
         <v>20</v>
       </c>
@@ -5082,17 +5084,548 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1">
+    <row r="115" spans="1:20">
       <c r="E115" s="2"/>
     </row>
+    <row r="116" spans="1:20">
+      <c r="A116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" t="s">
+        <v>22</v>
+      </c>
+      <c r="K116" s="1">
+        <v>43248.010416666701</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>23</v>
+      </c>
+      <c r="N116" t="s">
+        <v>24</v>
+      </c>
+      <c r="T116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
+      <c r="A117" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117" s="1">
+        <v>43248.013888888898</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>23</v>
+      </c>
+      <c r="N117" t="s">
+        <v>24</v>
+      </c>
+      <c r="T117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
+        <v>30</v>
+      </c>
+      <c r="H118" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" t="s">
+        <v>13</v>
+      </c>
+      <c r="K118" s="1">
+        <v>43248.014583333301</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>23</v>
+      </c>
+      <c r="N118" t="s">
+        <v>24</v>
+      </c>
+      <c r="T118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
+      <c r="A119" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>90</v>
+      </c>
+      <c r="K119" s="1">
+        <v>43248.015277777798</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>23</v>
+      </c>
+      <c r="N119" t="s">
+        <v>24</v>
+      </c>
+      <c r="T119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s">
+        <v>21</v>
+      </c>
+      <c r="H120" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="1">
+        <v>43248.023611111101</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>23</v>
+      </c>
+      <c r="N120" t="s">
+        <v>24</v>
+      </c>
+      <c r="T120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" t="s">
+        <v>27</v>
+      </c>
+      <c r="K121" s="1">
+        <v>43248.015972222202</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121" t="s">
+        <v>24</v>
+      </c>
+      <c r="T121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" t="s">
+        <v>30</v>
+      </c>
+      <c r="I124" t="s">
+        <v>22</v>
+      </c>
+      <c r="K124" s="1">
+        <v>43249.018750000003</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>23</v>
+      </c>
+      <c r="N124" t="s">
+        <v>24</v>
+      </c>
+      <c r="T124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
+      <c r="A125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" t="s">
+        <v>27</v>
+      </c>
+      <c r="J125" t="s">
+        <v>94</v>
+      </c>
+      <c r="K125" s="1">
+        <v>43249.023611111101</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>23</v>
+      </c>
+      <c r="N125" t="s">
+        <v>24</v>
+      </c>
+      <c r="T125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>21</v>
+      </c>
+      <c r="H126" t="s">
+        <v>21</v>
+      </c>
+      <c r="I126" t="s">
+        <v>27</v>
+      </c>
+      <c r="K126" s="1">
+        <v>43249.024305555598</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>23</v>
+      </c>
+      <c r="N126" t="s">
+        <v>24</v>
+      </c>
+      <c r="T126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
+      <c r="A127" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G127" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" t="s">
+        <v>27</v>
+      </c>
+      <c r="K127" s="1">
+        <v>43249.037499999999</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>23</v>
+      </c>
+      <c r="N127" t="s">
+        <v>24</v>
+      </c>
+      <c r="T127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
+      <c r="A128" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" t="s">
+        <v>31</v>
+      </c>
+      <c r="D128" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128" s="1">
+        <v>43249.043749999997</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
+        <v>23</v>
+      </c>
+      <c r="N128" t="s">
+        <v>24</v>
+      </c>
+      <c r="T128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
+      <c r="A129" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="K129" s="1">
+        <v>43249.182638888902</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>23</v>
+      </c>
+      <c r="N129" t="s">
+        <v>24</v>
+      </c>
+      <c r="T129" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B115">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Kippax Coffee| 8/24 Kippax St Surry Hills NSW 2010​​"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B115"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/all_together.xlsx
+++ b/data/all_together.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="-17900" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-2060" yWindow="-17300" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
     <sheet name="Totals" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Data'!$B$1:$B$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Data'!$B$1:$B$119</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="95">
   <si>
     <t>1. https://userfiles-fos.s3.amazonaws.com/1817115/images/IMG_5275_4.JPG</t>
   </si>
@@ -1063,13 +1063,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
     <tabColor rgb="FF87CEFA"/>
   </sheetPr>
-  <dimension ref="A1:U129"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" hidden="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" hidden="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" hidden="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" hidden="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" hidden="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1379,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="7" spans="1:21" hidden="1"/>
+    <row r="8" spans="1:21" hidden="1">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" hidden="1">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" hidden="1">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" hidden="1">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1599,7 +1600,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="13" spans="1:21" hidden="1"/>
+    <row r="14" spans="1:21" hidden="1">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" hidden="1">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" hidden="1">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" hidden="1">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1775,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" hidden="1">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1819,6 +1821,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:20" hidden="1"/>
     <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
         <v>47</v>
@@ -1959,28 +1962,28 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K23" s="1">
-        <v>43228.114583333299</v>
+        <v>43228.173611111102</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2003,131 +2006,135 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="1">
+        <v>43228.149305555598</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1"/>
+    <row r="26" spans="1:20" hidden="1">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="1">
+        <v>43223.263888888898</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" hidden="1">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="1">
-        <v>43228.173611111102</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="1">
-        <v>43228.181944444397</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" t="s">
-        <v>24</v>
-      </c>
-      <c r="T25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="1">
-        <v>43228.149305555598</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="1">
+        <v>43223.2722222222</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" hidden="1">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2135,28 +2142,31 @@
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
       </c>
       <c r="K28" s="1">
-        <v>43223.263888888898</v>
+        <v>43224.011805555601</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2171,16 +2181,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" hidden="1">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
       <c r="D29" t="s">
         <v>26</v>
       </c>
@@ -2188,22 +2195,19 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
         <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="K29" s="1">
-        <v>43223.2722222222</v>
+        <v>43228.1743055556</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2218,95 +2222,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="30" spans="1:20" hidden="1"/>
+    <row r="31" spans="1:20" hidden="1"/>
+    <row r="32" spans="1:20" hidden="1">
+      <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="1">
+        <v>43222.0715277778</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" hidden="1">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="1">
-        <v>43224.011805555601</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" t="s">
-        <v>24</v>
-      </c>
-      <c r="T30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="1">
-        <v>43228.1743055556</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" t="s">
-        <v>24</v>
-      </c>
-      <c r="T31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="1">
+        <v>43222.085416666698</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" hidden="1">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -2314,10 +2320,10 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -2329,13 +2335,13 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" s="1">
-        <v>43222.0715277778</v>
+        <v>43222.146527777797</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2350,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
@@ -2358,10 +2364,10 @@
         <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -2376,10 +2382,10 @@
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K35" s="1">
-        <v>43222.085416666698</v>
+        <v>43222.183333333298</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2394,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -2402,28 +2408,31 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
         <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
       </c>
+      <c r="J36" t="s">
+        <v>54</v>
+      </c>
       <c r="K36" s="1">
-        <v>43222.146527777797</v>
+        <v>43222.269444444399</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2438,36 +2447,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
       <c r="K37" s="1">
-        <v>43222.183333333298</v>
+        <v>43222.331250000003</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2482,95 +2488,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="38" spans="1:20" hidden="1"/>
+    <row r="39" spans="1:20" hidden="1">
+      <c r="A39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="1">
+        <v>43220.026388888902</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" t="s">
+        <v>24</v>
+      </c>
+      <c r="T39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" hidden="1">
+      <c r="A40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
         <v>26</v>
       </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="1">
-        <v>43222.269444444399</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" t="s">
-        <v>24</v>
-      </c>
-      <c r="T38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="1">
-        <v>43222.331250000003</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" t="s">
-        <v>24</v>
-      </c>
-      <c r="T39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="1">
+        <v>43220.030555555597</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" hidden="1">
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
@@ -2578,28 +2588,28 @@
         <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K41" s="1">
-        <v>43220.026388888902</v>
+        <v>43220.03125</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2614,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -2622,31 +2632,28 @@
         <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K42" s="1">
-        <v>43220.030555555597</v>
+        <v>43220.087500000001</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2661,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" hidden="1">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2669,28 +2676,28 @@
         <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K43" s="1">
-        <v>43220.03125</v>
+        <v>43221.0222222222</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2705,95 +2712,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="1">
-        <v>43220.087500000001</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" t="s">
-        <v>24</v>
-      </c>
-      <c r="T44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="1">
-        <v>43221.0222222222</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" t="s">
-        <v>24</v>
-      </c>
-      <c r="T45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+    <row r="44" spans="1:20" hidden="1"/>
+    <row r="45" spans="1:20" hidden="1"/>
+    <row r="46" spans="1:20" hidden="1">
+      <c r="A46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="1">
+        <v>43217.166666666701</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" t="s">
+        <v>24</v>
+      </c>
+      <c r="T46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" hidden="1">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="1">
+        <v>43217.182638888902</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" hidden="1">
       <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
@@ -2801,28 +2810,28 @@
         <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K48" s="1">
-        <v>43217.166666666701</v>
+        <v>43217.184027777803</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2837,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" hidden="1">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -2845,28 +2854,28 @@
         <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K49" s="1">
-        <v>43217.182638888902</v>
+        <v>43217.238194444399</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -2881,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" hidden="1">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -2889,28 +2898,28 @@
         <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K50" s="1">
-        <v>43217.184027777803</v>
+        <v>43219.9819444444</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2925,95 +2934,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="51" spans="1:20" hidden="1"/>
+    <row r="52" spans="1:20" hidden="1"/>
+    <row r="53" spans="1:20" hidden="1">
+      <c r="A53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="1">
+        <v>43216.285416666702</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" t="s">
+        <v>24</v>
+      </c>
+      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" hidden="1">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>26</v>
       </c>
-      <c r="E51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" t="s">
-        <v>27</v>
-      </c>
-      <c r="K51" s="1">
-        <v>43217.238194444399</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N51" t="s">
-        <v>24</v>
-      </c>
-      <c r="T51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" s="1">
-        <v>43219.9819444444</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>23</v>
-      </c>
-      <c r="N52" t="s">
-        <v>24</v>
-      </c>
-      <c r="T52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="1">
+        <v>43216.291666666701</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" t="s">
+        <v>24</v>
+      </c>
+      <c r="T54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" hidden="1">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -3021,28 +3032,31 @@
         <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
         <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
         <v>21</v>
       </c>
+      <c r="J55" t="s">
+        <v>60</v>
+      </c>
       <c r="K55" s="1">
-        <v>43216.285416666702</v>
+        <v>43216.293749999997</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3057,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" hidden="1">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -3065,28 +3079,28 @@
         <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F56" t="s">
         <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K56" s="1">
-        <v>43216.291666666701</v>
+        <v>43216.972222222197</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3101,98 +3115,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" t="s">
-        <v>60</v>
-      </c>
-      <c r="K57" s="1">
-        <v>43216.293749999997</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57" t="s">
-        <v>24</v>
-      </c>
-      <c r="T57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="1">
-        <v>43216.972222222197</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
-        <v>23</v>
-      </c>
-      <c r="N58" t="s">
-        <v>24</v>
-      </c>
-      <c r="T58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+    <row r="57" spans="1:20" hidden="1"/>
+    <row r="58" spans="1:20" hidden="1"/>
+    <row r="59" spans="1:20" hidden="1">
+      <c r="A59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="1">
+        <v>43215.987500000003</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" t="s">
+        <v>24</v>
+      </c>
+      <c r="T59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" hidden="1">
+      <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="1">
+        <v>43215.989583333299</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" t="s">
+        <v>24</v>
+      </c>
+      <c r="T60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" hidden="1">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -3200,28 +3213,28 @@
         <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K61" s="1">
-        <v>43215.987500000003</v>
+        <v>43216.006249999999</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3236,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" hidden="1">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3244,28 +3257,28 @@
         <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K62" s="1">
-        <v>43215.989583333299</v>
+        <v>43216.015277777798</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3280,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" hidden="1">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -3288,28 +3301,28 @@
         <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K63" s="1">
-        <v>43216.006249999999</v>
+        <v>43216.027777777803</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -3324,95 +3337,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
-      <c r="A64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
+    <row r="64" spans="1:20" hidden="1"/>
+    <row r="65" spans="1:20" hidden="1"/>
+    <row r="66" spans="1:20" hidden="1">
+      <c r="A66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
         <v>30</v>
       </c>
-      <c r="H64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="1">
+        <v>43213.089583333298</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" t="s">
+        <v>24</v>
+      </c>
+      <c r="T66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" hidden="1">
+      <c r="A67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="1">
-        <v>43216.015277777798</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" t="s">
-        <v>23</v>
-      </c>
-      <c r="N64" t="s">
-        <v>24</v>
-      </c>
-      <c r="T64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" t="s">
-        <v>27</v>
-      </c>
-      <c r="K65" s="1">
-        <v>43216.027777777803</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" t="s">
-        <v>23</v>
-      </c>
-      <c r="N65" t="s">
-        <v>24</v>
-      </c>
-      <c r="T65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="H67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="1">
+        <v>43213.098611111098</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" t="s">
+        <v>24</v>
+      </c>
+      <c r="T67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" hidden="1">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
@@ -3420,28 +3435,28 @@
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68" s="1">
-        <v>43213.089583333298</v>
+        <v>43213.1118055556</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3456,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" hidden="1">
       <c r="A69" s="2" t="s">
         <v>62</v>
       </c>
@@ -3464,28 +3479,28 @@
         <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s">
         <v>30</v>
       </c>
-      <c r="H69" t="s">
-        <v>22</v>
-      </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K69" s="1">
-        <v>43213.098611111098</v>
+        <v>43213.249305555597</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3500,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" hidden="1">
       <c r="A70" s="2" t="s">
         <v>62</v>
       </c>
@@ -3508,28 +3523,28 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K70" s="1">
-        <v>43213.1118055556</v>
+        <v>43213.492361111101</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -3538,101 +3553,106 @@
         <v>23</v>
       </c>
       <c r="N70" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="T70" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
-      <c r="A71" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" t="s">
+    <row r="71" spans="1:20" hidden="1"/>
+    <row r="72" spans="1:20" hidden="1"/>
+    <row r="73" spans="1:20" hidden="1">
+      <c r="A73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
         <v>20</v>
       </c>
-      <c r="E71" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
-      </c>
-      <c r="H71" t="s">
-        <v>30</v>
-      </c>
-      <c r="I71" t="s">
-        <v>30</v>
-      </c>
-      <c r="K71" s="1">
-        <v>43213.249305555597</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71" t="s">
-        <v>23</v>
-      </c>
-      <c r="N71" t="s">
-        <v>24</v>
-      </c>
-      <c r="T71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="1">
-        <v>43213.492361111101</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72" t="s">
-        <v>23</v>
-      </c>
-      <c r="N72" t="s">
-        <v>63</v>
-      </c>
-      <c r="T72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="1">
+        <v>43210.020138888904</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" t="s">
+        <v>24</v>
+      </c>
+      <c r="T73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" hidden="1">
+      <c r="A74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>65</v>
+      </c>
+      <c r="K74" s="1">
+        <v>43210.026388888902</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" t="s">
+        <v>24</v>
+      </c>
+      <c r="T74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" hidden="1">
       <c r="A75" s="2" t="s">
         <v>64</v>
       </c>
@@ -3640,10 +3660,10 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -3652,16 +3672,16 @@
         <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
       </c>
       <c r="K75" s="1">
-        <v>43210.020138888904</v>
+        <v>43210.029166666704</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -3676,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" hidden="1">
       <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
@@ -3684,31 +3704,28 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
         <v>26</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F76" t="s">
         <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H76" t="s">
         <v>27</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K76" s="1">
-        <v>43210.026388888902</v>
+        <v>43210.030555555597</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -3723,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" hidden="1">
       <c r="A77" s="2" t="s">
         <v>64</v>
       </c>
@@ -3731,28 +3748,28 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G77" t="s">
         <v>21</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
       </c>
       <c r="K77" s="1">
-        <v>43210.029166666704</v>
+        <v>43210.070138888899</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -3767,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" hidden="1">
       <c r="A78" s="2" t="s">
         <v>64</v>
       </c>
@@ -3775,10 +3792,10 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
@@ -3787,16 +3804,16 @@
         <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K78" s="1">
-        <v>43210.030555555597</v>
+        <v>43210.047916666699</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -3811,65 +3828,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" t="s">
-        <v>21</v>
-      </c>
-      <c r="K79" s="1">
-        <v>43210.070138888899</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79" t="s">
-        <v>23</v>
-      </c>
-      <c r="N79" t="s">
-        <v>24</v>
-      </c>
-      <c r="T79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+    <row r="79" spans="1:20" hidden="1"/>
+    <row r="80" spans="1:20" hidden="1">
       <c r="A80" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
         <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s">
         <v>21</v>
@@ -3878,13 +3852,13 @@
         <v>21</v>
       </c>
       <c r="H80" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K80" s="1">
-        <v>43210.047916666699</v>
+        <v>43209.025000000001</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -3899,7 +3873,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="81" spans="1:20" hidden="1">
+      <c r="A81" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="1">
+        <v>43209.029861111099</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" t="s">
+        <v>24</v>
+      </c>
+      <c r="T81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" hidden="1">
       <c r="A82" s="2" t="s">
         <v>66</v>
       </c>
@@ -3907,10 +3925,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
         <v>27</v>
@@ -3919,7 +3937,7 @@
         <v>21</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H82" t="s">
         <v>27</v>
@@ -3928,7 +3946,7 @@
         <v>27</v>
       </c>
       <c r="K82" s="1">
-        <v>43209.025000000001</v>
+        <v>43209.030555555597</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -3943,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" hidden="1">
       <c r="A83" s="2" t="s">
         <v>66</v>
       </c>
@@ -3951,16 +3969,16 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
         <v>22</v>
@@ -3969,10 +3987,10 @@
         <v>22</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K83" s="1">
-        <v>43209.029861111099</v>
+        <v>43209.043749999997</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -3987,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" hidden="1">
       <c r="A84" s="2" t="s">
         <v>66</v>
       </c>
@@ -3995,28 +4013,31 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
         <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I84" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>67</v>
       </c>
       <c r="K84" s="1">
-        <v>43209.030555555597</v>
+        <v>43209.247916666704</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -4031,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" hidden="1">
       <c r="A85" s="2" t="s">
         <v>66</v>
       </c>
@@ -4039,134 +4060,133 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="1">
+        <v>43209.965277777803</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>23</v>
+      </c>
+      <c r="N85" t="s">
+        <v>24</v>
+      </c>
+      <c r="T85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" hidden="1"/>
+    <row r="87" spans="1:20" hidden="1"/>
+    <row r="88" spans="1:20" hidden="1">
+      <c r="A88" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
         <v>20</v>
       </c>
-      <c r="E85" t="s">
-        <v>21</v>
-      </c>
-      <c r="F85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" t="s">
-        <v>27</v>
-      </c>
-      <c r="K85" s="1">
-        <v>43209.043749999997</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85" t="s">
-        <v>23</v>
-      </c>
-      <c r="N85" t="s">
-        <v>24</v>
-      </c>
-      <c r="T85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20">
-      <c r="A86" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" s="1">
+        <v>43208.0131944444</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" t="s">
+        <v>24</v>
+      </c>
+      <c r="T88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" hidden="1">
+      <c r="A89" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" t="s">
         <v>26</v>
       </c>
-      <c r="E86" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" t="s">
-        <v>22</v>
-      </c>
-      <c r="I86" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" t="s">
-        <v>67</v>
-      </c>
-      <c r="K86" s="1">
-        <v>43209.247916666704</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86" t="s">
-        <v>23</v>
-      </c>
-      <c r="N86" t="s">
-        <v>24</v>
-      </c>
-      <c r="T86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" t="s">
-        <v>27</v>
-      </c>
-      <c r="K87" s="1">
-        <v>43209.965277777803</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87" t="s">
-        <v>23</v>
-      </c>
-      <c r="N87" t="s">
-        <v>24</v>
-      </c>
-      <c r="T87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="1">
+        <v>43208.021527777797</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89" t="s">
+        <v>24</v>
+      </c>
+      <c r="T89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" hidden="1">
       <c r="A90" s="2" t="s">
         <v>68</v>
       </c>
@@ -4174,28 +4194,28 @@
         <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I90" t="s">
         <v>21</v>
       </c>
       <c r="K90" s="1">
-        <v>43208.0131944444</v>
+        <v>43208.039583333302</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -4210,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" hidden="1">
       <c r="A91" s="2" t="s">
         <v>68</v>
       </c>
@@ -4218,28 +4238,28 @@
         <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K91" s="1">
-        <v>43208.021527777797</v>
+        <v>43208.0493055556</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -4254,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" hidden="1">
       <c r="A92" s="2" t="s">
         <v>68</v>
       </c>
@@ -4262,28 +4282,28 @@
         <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H92" t="s">
         <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K92" s="1">
-        <v>43208.039583333302</v>
+        <v>43208.085416666698</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -4298,95 +4318,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
-      <c r="A93" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" t="s">
-        <v>21</v>
-      </c>
-      <c r="I93" t="s">
-        <v>22</v>
-      </c>
-      <c r="K93" s="1">
-        <v>43208.0493055556</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93" t="s">
-        <v>23</v>
-      </c>
-      <c r="N93" t="s">
-        <v>24</v>
-      </c>
-      <c r="T93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" t="s">
+    <row r="93" spans="1:20" hidden="1"/>
+    <row r="94" spans="1:20" hidden="1"/>
+    <row r="95" spans="1:20" hidden="1">
+      <c r="A95" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
         <v>29</v>
       </c>
-      <c r="E94" t="s">
-        <v>21</v>
-      </c>
-      <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" t="s">
-        <v>21</v>
-      </c>
-      <c r="I94" t="s">
-        <v>30</v>
-      </c>
-      <c r="K94" s="1">
-        <v>43208.085416666698</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94" t="s">
-        <v>23</v>
-      </c>
-      <c r="N94" t="s">
-        <v>24</v>
-      </c>
-      <c r="T94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" s="1">
+        <v>43242.015972222202</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95" t="s">
+        <v>24</v>
+      </c>
+      <c r="T95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" hidden="1">
+      <c r="A96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" s="1">
+        <v>43242.0222222222</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" t="s">
+        <v>24</v>
+      </c>
+      <c r="T96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" hidden="1">
       <c r="A97" s="2" t="s">
         <v>69</v>
       </c>
@@ -4394,19 +4416,19 @@
         <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D97" t="s">
         <v>29</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H97" t="s">
         <v>22</v>
@@ -4415,7 +4437,7 @@
         <v>22</v>
       </c>
       <c r="K97" s="1">
-        <v>43242.015972222202</v>
+        <v>43242.023611111101</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -4430,95 +4452,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
-      <c r="A98" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" t="s">
-        <v>22</v>
-      </c>
-      <c r="I98" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" s="1">
-        <v>43242.0222222222</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98" t="s">
-        <v>23</v>
-      </c>
-      <c r="N98" t="s">
-        <v>24</v>
-      </c>
-      <c r="T98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
-      <c r="A99" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" t="s">
-        <v>29</v>
-      </c>
-      <c r="E99" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" t="s">
-        <v>22</v>
-      </c>
-      <c r="I99" t="s">
-        <v>22</v>
-      </c>
-      <c r="K99" s="1">
-        <v>43242.023611111101</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99" t="s">
-        <v>23</v>
-      </c>
-      <c r="N99" t="s">
-        <v>24</v>
-      </c>
-      <c r="T99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20">
+    <row r="98" spans="1:20" hidden="1"/>
+    <row r="99" spans="1:20" hidden="1"/>
+    <row r="100" spans="1:20" hidden="1">
+      <c r="A100" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="1">
+        <v>43201.270833333299</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>23</v>
+      </c>
+      <c r="N100" t="s">
+        <v>24</v>
+      </c>
+      <c r="T100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" hidden="1">
+      <c r="A101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" t="s">
+        <v>71</v>
+      </c>
+      <c r="K101" s="1">
+        <v>43206.027777777803</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>23</v>
+      </c>
+      <c r="N101" t="s">
+        <v>24</v>
+      </c>
+      <c r="T101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" hidden="1">
       <c r="A102" s="2" t="s">
         <v>70</v>
       </c>
@@ -4526,13 +4553,13 @@
         <v>87</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D102" t="s">
         <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
@@ -4541,13 +4568,13 @@
         <v>21</v>
       </c>
       <c r="H102" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K102" s="1">
-        <v>43201.270833333299</v>
+        <v>43206.028472222199</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -4562,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" hidden="1">
       <c r="A103" s="2" t="s">
         <v>70</v>
       </c>
@@ -4570,31 +4597,28 @@
         <v>87</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I103" t="s">
-        <v>27</v>
-      </c>
-      <c r="J103" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="K103" s="1">
-        <v>43206.027777777803</v>
+        <v>43206.029861111099</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -4609,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" hidden="1">
       <c r="A104" s="2" t="s">
         <v>70</v>
       </c>
@@ -4617,10 +4641,10 @@
         <v>87</v>
       </c>
       <c r="C104" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
@@ -4629,7 +4653,7 @@
         <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H104" t="s">
         <v>27</v>
@@ -4638,7 +4662,7 @@
         <v>27</v>
       </c>
       <c r="K104" s="1">
-        <v>43206.028472222199</v>
+        <v>43206.030555555597</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -4653,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" hidden="1">
       <c r="A105" s="2" t="s">
         <v>70</v>
       </c>
@@ -4661,28 +4685,28 @@
         <v>87</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E105" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H105" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I105" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K105" s="1">
-        <v>43206.029861111099</v>
+        <v>43207.046527777798</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -4697,36 +4721,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" hidden="1">
       <c r="A106" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D106" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I106" t="s">
         <v>27</v>
       </c>
       <c r="K106" s="1">
-        <v>43206.030555555597</v>
+        <v>43207.21875</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -4741,36 +4765,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" hidden="1">
       <c r="A107" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H107" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I107" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K107" s="1">
-        <v>43207.046527777798</v>
+        <v>43207.271527777797</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -4785,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" hidden="1">
       <c r="A108" s="2" t="s">
         <v>70</v>
       </c>
@@ -4793,28 +4817,28 @@
         <v>88</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H108" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I108" t="s">
         <v>27</v>
       </c>
       <c r="K108" s="1">
-        <v>43207.21875</v>
+        <v>43207.279861111099</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -4829,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" hidden="1">
       <c r="A109" s="2" t="s">
         <v>70</v>
       </c>
@@ -4837,28 +4861,28 @@
         <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G109" t="s">
         <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I109" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K109" s="1">
-        <v>43207.271527777797</v>
+        <v>43207.219444444403</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -4873,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" hidden="1">
       <c r="A110" s="2" t="s">
         <v>70</v>
       </c>
@@ -4881,28 +4905,28 @@
         <v>88</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E110" t="s">
         <v>21</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I110" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K110" s="1">
-        <v>43207.279861111099</v>
+        <v>43207.999305555597</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -4917,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" hidden="1">
       <c r="A111" s="2" t="s">
         <v>70</v>
       </c>
@@ -4925,28 +4949,28 @@
         <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G111" t="s">
         <v>22</v>
       </c>
       <c r="H111" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I111" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K111" s="1">
-        <v>43207.219444444403</v>
+        <v>43208.003472222197</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -4961,16 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
-      <c r="A112" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" t="s">
-        <v>19</v>
-      </c>
+    <row r="112" spans="1:20" hidden="1">
       <c r="D112" t="s">
         <v>20</v>
       </c>
@@ -4978,19 +4993,19 @@
         <v>21</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H112" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I112" t="s">
         <v>21</v>
       </c>
       <c r="K112" s="1">
-        <v>43207.999305555597</v>
+        <v>43208.007638888899</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -5005,71 +5020,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
-      <c r="A113" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C113" t="s">
-        <v>72</v>
-      </c>
-      <c r="D113" t="s">
-        <v>20</v>
-      </c>
-      <c r="E113" t="s">
-        <v>21</v>
-      </c>
-      <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>22</v>
-      </c>
-      <c r="H113" t="s">
-        <v>21</v>
-      </c>
-      <c r="I113" t="s">
-        <v>21</v>
-      </c>
-      <c r="K113" s="1">
-        <v>43208.003472222197</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" t="s">
-        <v>23</v>
-      </c>
-      <c r="N113" t="s">
-        <v>24</v>
-      </c>
-      <c r="T113" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20">
+    <row r="113" spans="1:20" hidden="1">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:20" hidden="1">
+      <c r="A114" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
       <c r="D114" t="s">
         <v>20</v>
       </c>
       <c r="E114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H114" t="s">
         <v>21</v>
       </c>
       <c r="I114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K114" s="1">
-        <v>43208.007638888899</v>
+        <v>43248.010416666701</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -5084,10 +5067,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:20">
+    <row r="115" spans="1:20" hidden="1">
+      <c r="A115" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="1">
+        <v>43248.013888888898</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" t="s">
+        <v>23</v>
+      </c>
+      <c r="N115" t="s">
+        <v>24</v>
+      </c>
+      <c r="T115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" hidden="1">
       <c r="A116" s="2" t="s">
         <v>89</v>
       </c>
@@ -5095,7 +5119,7 @@
         <v>91</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
         <v>20</v>
@@ -5113,10 +5137,13 @@
         <v>21</v>
       </c>
       <c r="I116" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="J116" t="s">
+        <v>13</v>
       </c>
       <c r="K116" s="1">
-        <v>43248.010416666701</v>
+        <v>43248.014583333301</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -5131,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" hidden="1">
       <c r="A117" s="2" t="s">
         <v>89</v>
       </c>
@@ -5139,7 +5166,7 @@
         <v>91</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D117" t="s">
         <v>26</v>
@@ -5151,16 +5178,19 @@
         <v>21</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H117" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I117" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>90</v>
       </c>
       <c r="K117" s="1">
-        <v>43248.013888888898</v>
+        <v>43248.015277777798</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -5175,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" hidden="1">
       <c r="A118" s="2" t="s">
         <v>89</v>
       </c>
@@ -5183,31 +5213,28 @@
         <v>91</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H118" t="s">
         <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>21</v>
-      </c>
-      <c r="J118" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K118" s="1">
-        <v>43248.014583333301</v>
+        <v>43248.023611111101</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -5222,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" hidden="1">
       <c r="A119" s="2" t="s">
         <v>89</v>
       </c>
@@ -5230,31 +5257,28 @@
         <v>91</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D119" t="s">
         <v>26</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G119" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H119" t="s">
         <v>27</v>
       </c>
       <c r="I119" t="s">
-        <v>21</v>
-      </c>
-      <c r="J119" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="K119" s="1">
-        <v>43248.015277777798</v>
+        <v>43248.015972222202</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -5269,91 +5293,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
-      <c r="A120" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C120" t="s">
+    <row r="122" spans="1:20">
+      <c r="A122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s">
+        <v>30</v>
+      </c>
+      <c r="I122" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122" s="1">
+        <v>43249.018750000003</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>23</v>
+      </c>
+      <c r="N122" t="s">
+        <v>24</v>
+      </c>
+      <c r="T122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="A123" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D123" t="s">
         <v>34</v>
       </c>
-      <c r="E120" t="s">
-        <v>21</v>
-      </c>
-      <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s">
-        <v>21</v>
-      </c>
-      <c r="H120" t="s">
-        <v>21</v>
-      </c>
-      <c r="I120" t="s">
-        <v>22</v>
-      </c>
-      <c r="K120" s="1">
-        <v>43248.023611111101</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120" t="s">
-        <v>23</v>
-      </c>
-      <c r="N120" t="s">
-        <v>24</v>
-      </c>
-      <c r="T120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20">
-      <c r="A121" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C121" t="s">
-        <v>43</v>
-      </c>
-      <c r="D121" t="s">
-        <v>26</v>
-      </c>
-      <c r="E121" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" t="s">
-        <v>27</v>
-      </c>
-      <c r="I121" t="s">
-        <v>27</v>
-      </c>
-      <c r="K121" s="1">
-        <v>43248.015972222202</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121" t="s">
-        <v>23</v>
-      </c>
-      <c r="N121" t="s">
-        <v>24</v>
-      </c>
-      <c r="T121" t="b">
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" t="s">
+        <v>94</v>
+      </c>
+      <c r="K123" s="1">
+        <v>43249.023611111101</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>23</v>
+      </c>
+      <c r="N123" t="s">
+        <v>24</v>
+      </c>
+      <c r="T123" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5365,28 +5392,28 @@
         <v>93</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E124" t="s">
         <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I124" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K124" s="1">
-        <v>43249.018750000003</v>
+        <v>43249.024305555598</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -5409,13 +5436,13 @@
         <v>93</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D125" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E125" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F125" t="s">
         <v>27</v>
@@ -5429,11 +5456,8 @@
       <c r="I125" t="s">
         <v>27</v>
       </c>
-      <c r="J125" t="s">
-        <v>94</v>
-      </c>
       <c r="K125" s="1">
-        <v>43249.023611111101</v>
+        <v>43249.037499999999</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -5456,28 +5480,28 @@
         <v>93</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E126" t="s">
         <v>22</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I126" t="s">
         <v>27</v>
       </c>
       <c r="K126" s="1">
-        <v>43249.024305555598</v>
+        <v>43249.043749999997</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -5500,28 +5524,28 @@
         <v>93</v>
       </c>
       <c r="C127" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H127" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I127" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K127" s="1">
-        <v>43249.037499999999</v>
+        <v>43249.182638888902</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -5536,96 +5560,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
-      <c r="A128" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C128" t="s">
-        <v>31</v>
-      </c>
-      <c r="D128" t="s">
-        <v>32</v>
-      </c>
-      <c r="E128" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" t="s">
-        <v>22</v>
-      </c>
-      <c r="I128" t="s">
-        <v>27</v>
-      </c>
-      <c r="K128" s="1">
-        <v>43249.043749999997</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128" t="s">
-        <v>23</v>
-      </c>
-      <c r="N128" t="s">
-        <v>24</v>
-      </c>
-      <c r="T128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20">
-      <c r="A129" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" t="s">
-        <v>29</v>
-      </c>
-      <c r="E129" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" t="s">
-        <v>22</v>
-      </c>
-      <c r="I129" t="s">
-        <v>21</v>
-      </c>
-      <c r="K129" s="1">
-        <v>43249.182638888902</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129" t="s">
-        <v>23</v>
-      </c>
-      <c r="N129" t="s">
-        <v>24</v>
-      </c>
-      <c r="T129" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B115"/>
+  <autoFilter ref="B1:B119">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Camys Chargrill Chicken|14 Foveaux St, Surry Hills NSW 2010"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/all_together.xlsx
+++ b/data/all_together.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-2060" yWindow="-17300" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Totals" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Data'!$B$1:$B$119</definedName>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="91">
   <si>
     <t>1. https://userfiles-fos.s3.amazonaws.com/1817115/images/IMG_5275_4.JPG</t>
   </si>
@@ -130,15 +129,6 @@
     <t>Latte</t>
   </si>
   <si>
-    <t>​What do you typically order to drink?​</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>​On a scale of 1 - 5 (5 being the highest) how would you rate the above coffee shop?​​</t>
-  </si>
-  <si>
     <t>Very Bad</t>
   </si>
   <si>
@@ -197,9 +187,6 @@
   </si>
   <si>
     <t>1. https://userfiles-fos.s3.amazonaws.com/1817115/images/IMG_5212.JPG</t>
-  </si>
-  <si>
-    <t>gao.jiang@gmail.com</t>
   </si>
   <si>
     <t>1. https://userfiles-fos.s3.amazonaws.com/1817115/images/IMG_5209.JPG</t>
@@ -317,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -334,11 +321,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -351,17 +333,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -382,188 +359,188 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -649,6 +626,7 @@
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -734,6 +712,7 @@
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1063,13 +1042,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF87CEFA"/>
   </sheetPr>
   <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1096,16 +1075,16 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
@@ -1159,12 +1138,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1203,12 +1182,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1247,12 +1226,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1">
+    <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1291,12 +1270,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1">
+    <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1335,12 +1314,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1">
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -1379,13 +1358,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1"/>
-    <row r="8" spans="1:21" hidden="1">
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1424,12 +1402,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1">
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -1468,12 +1446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1">
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1512,15 +1490,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1">
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1556,15 +1534,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1">
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1600,13 +1578,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1"/>
-    <row r="14" spans="1:21" hidden="1">
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1645,12 +1622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1">
+    <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -1689,12 +1666,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1">
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -1733,15 +1710,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1">
+    <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1777,12 +1754,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1">
+    <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -1821,13 +1798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1"/>
     <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -1868,10 +1844,10 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -1912,13 +1888,13 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1956,10 +1932,10 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -2000,10 +1976,10 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2042,13 +2018,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1"/>
-    <row r="26" spans="1:20" hidden="1">
+    <row r="26" spans="1:20">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -2087,15 +2062,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1">
+    <row r="27" spans="1:20">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -2116,7 +2091,7 @@
         <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K27" s="1">
         <v>43223.2722222222</v>
@@ -2134,15 +2109,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1">
+    <row r="28" spans="1:20">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2163,7 +2138,7 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K28" s="1">
         <v>43224.011805555601</v>
@@ -2181,12 +2156,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1">
+    <row r="29" spans="1:20">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2222,14 +2197,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1"/>
-    <row r="31" spans="1:20" hidden="1"/>
-    <row r="32" spans="1:20" hidden="1">
+    <row r="32" spans="1:20">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -2268,15 +2241,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1">
+    <row r="33" spans="1:20">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -2312,12 +2285,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1">
+    <row r="34" spans="1:20">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -2356,12 +2329,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1">
+    <row r="35" spans="1:20">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
@@ -2400,15 +2373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1">
+    <row r="36" spans="1:20">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -2429,7 +2402,7 @@
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K36" s="1">
         <v>43222.269444444399</v>
@@ -2447,12 +2420,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1">
+    <row r="37" spans="1:20">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
@@ -2488,13 +2461,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1"/>
-    <row r="39" spans="1:20" hidden="1">
+    <row r="39" spans="1:20">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
@@ -2533,15 +2505,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1">
+    <row r="40" spans="1:20">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -2562,7 +2534,7 @@
         <v>27</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K40" s="1">
         <v>43220.030555555597</v>
@@ -2580,12 +2552,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1">
+    <row r="41" spans="1:20">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
@@ -2624,12 +2596,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1">
+    <row r="42" spans="1:20">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -2668,12 +2640,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1">
+    <row r="43" spans="1:20">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -2712,14 +2684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1"/>
-    <row r="45" spans="1:20" hidden="1"/>
-    <row r="46" spans="1:20" hidden="1">
+    <row r="46" spans="1:20">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -2758,15 +2728,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1">
+    <row r="47" spans="1:20">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
@@ -2802,15 +2772,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1">
+    <row r="48" spans="1:20">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
@@ -2846,15 +2816,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1">
+    <row r="49" spans="1:20">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
@@ -2890,12 +2860,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1">
+    <row r="50" spans="1:20">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
@@ -2934,14 +2904,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1"/>
-    <row r="52" spans="1:20" hidden="1"/>
-    <row r="53" spans="1:20" hidden="1">
+    <row r="53" spans="1:20">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -2980,15 +2948,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1">
+    <row r="54" spans="1:20">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>26</v>
@@ -3024,15 +2992,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1">
+    <row r="55" spans="1:20">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -3053,7 +3021,7 @@
         <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K55" s="1">
         <v>43216.293749999997</v>
@@ -3071,12 +3039,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1">
+    <row r="56" spans="1:20">
       <c r="A56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
         <v>33</v>
@@ -3115,14 +3083,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1"/>
-    <row r="58" spans="1:20" hidden="1"/>
-    <row r="59" spans="1:20" hidden="1">
+    <row r="59" spans="1:20">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
@@ -3161,15 +3127,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1">
+    <row r="60" spans="1:20">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
         <v>20</v>
@@ -3205,12 +3171,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1">
+    <row r="61" spans="1:20">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
@@ -3249,12 +3215,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1">
+    <row r="62" spans="1:20">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -3293,15 +3259,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1">
+    <row r="63" spans="1:20">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
@@ -3337,14 +3303,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1"/>
-    <row r="65" spans="1:20" hidden="1"/>
-    <row r="66" spans="1:20" hidden="1">
+    <row r="66" spans="1:20">
       <c r="A66" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
@@ -3383,15 +3347,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1">
+    <row r="67" spans="1:20">
       <c r="A67" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -3427,12 +3391,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1">
+    <row r="68" spans="1:20">
       <c r="A68" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
         <v>33</v>
@@ -3471,15 +3435,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1">
+    <row r="69" spans="1:20">
       <c r="A69" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
@@ -3491,7 +3455,7 @@
         <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H69" t="s">
         <v>30</v>
@@ -3515,12 +3479,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1">
+    <row r="70" spans="1:20">
       <c r="A70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -3553,20 +3517,18 @@
         <v>23</v>
       </c>
       <c r="N70" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="T70" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1"/>
-    <row r="72" spans="1:20" hidden="1"/>
-    <row r="73" spans="1:20" hidden="1">
+    <row r="73" spans="1:20">
       <c r="A73" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
@@ -3605,15 +3567,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1">
+    <row r="74" spans="1:20">
       <c r="A74" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
@@ -3634,7 +3596,7 @@
         <v>21</v>
       </c>
       <c r="J74" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K74" s="1">
         <v>43210.026388888902</v>
@@ -3652,12 +3614,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1">
+    <row r="75" spans="1:20">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -3696,15 +3658,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1">
+    <row r="76" spans="1:20">
       <c r="A76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
         <v>26</v>
@@ -3740,12 +3702,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1">
+    <row r="77" spans="1:20">
       <c r="A77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
@@ -3784,15 +3746,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1">
+    <row r="78" spans="1:20">
       <c r="A78" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D78" t="s">
         <v>20</v>
@@ -3828,13 +3790,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1"/>
-    <row r="80" spans="1:20" hidden="1">
+    <row r="80" spans="1:20">
       <c r="A80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
@@ -3873,12 +3834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1">
+    <row r="81" spans="1:20">
       <c r="A81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -3917,15 +3878,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1">
+    <row r="82" spans="1:20">
       <c r="A82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
         <v>26</v>
@@ -3961,15 +3922,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1">
+    <row r="83" spans="1:20">
       <c r="A83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
         <v>20</v>
@@ -4005,15 +3966,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1">
+    <row r="84" spans="1:20">
       <c r="A84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D84" t="s">
         <v>26</v>
@@ -4034,7 +3995,7 @@
         <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K84" s="1">
         <v>43209.247916666704</v>
@@ -4052,12 +4013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1">
+    <row r="85" spans="1:20">
       <c r="A85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
         <v>33</v>
@@ -4096,14 +4057,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1"/>
-    <row r="87" spans="1:20" hidden="1"/>
-    <row r="88" spans="1:20" hidden="1">
+    <row r="88" spans="1:20">
       <c r="A88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
         <v>19</v>
@@ -4142,15 +4101,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1">
+    <row r="89" spans="1:20">
       <c r="A89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
         <v>26</v>
@@ -4186,12 +4145,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1">
+    <row r="90" spans="1:20">
       <c r="A90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
         <v>33</v>
@@ -4230,15 +4189,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1">
+    <row r="91" spans="1:20">
       <c r="A91" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
         <v>20</v>
@@ -4274,12 +4233,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1">
+    <row r="92" spans="1:20">
       <c r="A92" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -4318,14 +4277,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1"/>
-    <row r="94" spans="1:20" hidden="1"/>
-    <row r="95" spans="1:20" hidden="1">
+    <row r="95" spans="1:20">
       <c r="A95" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
@@ -4364,12 +4321,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1">
+    <row r="96" spans="1:20">
       <c r="A96" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C96" t="s">
         <v>25</v>
@@ -4408,12 +4365,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1">
+    <row r="97" spans="1:20">
       <c r="A97" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -4452,14 +4409,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1"/>
-    <row r="99" spans="1:20" hidden="1"/>
-    <row r="100" spans="1:20" hidden="1">
+    <row r="100" spans="1:20">
       <c r="A100" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
@@ -4498,15 +4453,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1">
+    <row r="101" spans="1:20">
       <c r="A101" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
         <v>20</v>
@@ -4527,7 +4482,7 @@
         <v>27</v>
       </c>
       <c r="J101" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K101" s="1">
         <v>43206.027777777803</v>
@@ -4545,15 +4500,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1">
+    <row r="102" spans="1:20">
       <c r="A102" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D102" t="s">
         <v>20</v>
@@ -4589,12 +4544,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1">
+    <row r="103" spans="1:20">
       <c r="A103" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -4633,12 +4588,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1">
+    <row r="104" spans="1:20">
       <c r="A104" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
         <v>33</v>
@@ -4677,15 +4632,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1">
+    <row r="105" spans="1:20">
       <c r="A105" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
         <v>26</v>
@@ -4721,15 +4676,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1">
+    <row r="106" spans="1:20">
       <c r="A106" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
         <v>20</v>
@@ -4765,12 +4720,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1">
+    <row r="107" spans="1:20">
       <c r="A107" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -4809,15 +4764,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1">
+    <row r="108" spans="1:20">
       <c r="A108" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D108" t="s">
         <v>26</v>
@@ -4853,12 +4808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1">
+    <row r="109" spans="1:20">
       <c r="A109" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
         <v>33</v>
@@ -4897,12 +4852,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1">
+    <row r="110" spans="1:20">
       <c r="A110" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -4941,15 +4896,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1">
+    <row r="111" spans="1:20">
       <c r="A111" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D111" t="s">
         <v>20</v>
@@ -4985,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1">
+    <row r="112" spans="1:20">
       <c r="D112" t="s">
         <v>20</v>
       </c>
@@ -5020,15 +4975,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1">
+    <row r="113" spans="1:20">
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:20" hidden="1">
+    <row r="114" spans="1:20">
       <c r="A114" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
@@ -5067,12 +5022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1">
+    <row r="115" spans="1:20">
       <c r="A115" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C115" t="s">
         <v>25</v>
@@ -5111,15 +5066,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1">
+    <row r="116" spans="1:20">
       <c r="A116" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D116" t="s">
         <v>20</v>
@@ -5158,15 +5113,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1">
+    <row r="117" spans="1:20">
       <c r="A117" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D117" t="s">
         <v>26</v>
@@ -5187,7 +5142,7 @@
         <v>21</v>
       </c>
       <c r="J117" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K117" s="1">
         <v>43248.015277777798</v>
@@ -5205,12 +5160,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1">
+    <row r="118" spans="1:20">
       <c r="A118" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C118" t="s">
         <v>33</v>
@@ -5249,15 +5204,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1">
+    <row r="119" spans="1:20">
       <c r="A119" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C119" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D119" t="s">
         <v>26</v>
@@ -5295,10 +5250,10 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
@@ -5339,10 +5294,10 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C123" t="s">
         <v>33</v>
@@ -5366,7 +5321,7 @@
         <v>27</v>
       </c>
       <c r="J123" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K123" s="1">
         <v>43249.023611111101</v>
@@ -5386,10 +5341,10 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C124" t="s">
         <v>25</v>
@@ -5430,13 +5385,13 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C125" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
         <v>26</v>
@@ -5474,10 +5429,10 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
@@ -5518,10 +5473,10 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -5561,13 +5516,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B119">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Camys Chargrill Chicken|14 Foveaux St, Surry Hills NSW 2010"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B119"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5576,231 +5525,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <f>COUNTIF('All Data'!D2:D7,"Flat white")</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f>COUNTIF('All Data'!D2:D7,"Latte")</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>COUNTIF('All Data'!D2:D7,"Cappuccino")</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f>COUNTIF('All Data'!D2:D7,"Long black, Short black and Macchiato")</f>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f>COUNTIF('All Data'!D2:D7,"Mocha, Hot chocolate")</f>
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <f>COUNTIF('All Data'!D2:D7,"Others")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20">
-      <c r="A8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <f>COUNTIF('All Data'!E2:E7,"Very Bad")</f>
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f>COUNTIF('All Data'!E2:E7,"Bad")</f>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f>COUNTIF('All Data'!E2:E7,"Neutral")</f>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f>COUNTIF('All Data'!E2:E7,"Good")</f>
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <f>COUNTIF('All Data'!E2:E7,"Very Good")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <f>COUNTIF('All Data'!F2:F7,"Very Bad")</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>COUNTIF('All Data'!F2:F7,"Bad")</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>COUNTIF('All Data'!F2:F7,"Neutral")</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>COUNTIF('All Data'!F2:F7,"Good")</f>
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <f>COUNTIF('All Data'!F2:F7,"Very Good")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <f>COUNTIF('All Data'!G2:G7,"Very Bad")</f>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f>COUNTIF('All Data'!G2:G7,"Bad")</f>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f>COUNTIF('All Data'!G2:G7,"Neutral")</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>COUNTIF('All Data'!G2:G7,"Good")</f>
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <f>COUNTIF('All Data'!G2:G7,"Very Good")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <f>COUNTIF('All Data'!H2:H7,"Very Bad")</f>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f>COUNTIF('All Data'!H2:H7,"Bad")</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>COUNTIF('All Data'!H2:H7,"Neutral")</f>
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <f>COUNTIF('All Data'!H2:H7,"Good")</f>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f>COUNTIF('All Data'!H2:H7,"Very Good")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <f>COUNTIF('All Data'!I2:I7,"Very Bad")</f>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>COUNTIF('All Data'!I2:I7,"Bad")</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>COUNTIF('All Data'!I2:I7,"Neutral")</f>
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <f>COUNTIF('All Data'!I2:I7,"Good")</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f>COUNTIF('All Data'!I2:I7,"Very Good")</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>